--- a/biology/Zoologie/Diplocentridae/Diplocentridae.xlsx
+++ b/biology/Zoologie/Diplocentridae/Diplocentridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diplocentridae sont une famille de scorpions.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique et en Asie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique et en Asie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (01/06/2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (01/06/2020) :
 Bioculus Stahnke, 1968
 Cazierius Francke, 1978
 Cryptoiclus Teruel &amp; Kovařík, 2012
@@ -582,9 +598,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les genres peuvent se répartir en deux sous-familles les Nebinae pour Nebo et les Diplocentrinae pour les neuf autres[2]. En 2003, cette famille avait été dégradée en sous-famille des Scorpionidae[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres peuvent se répartir en deux sous-familles les Nebinae pour Nebo et les Diplocentrinae pour les neuf autres. En 2003, cette famille avait été dégradée en sous-famille des Scorpionidae.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Karsch, 1880 : Arachnologische Blätter. X. Scorpionologische fragmente. Zeitschrift für die Gessellschaft Naturwissenschaften, Halle, vol. 53, p. 404-409.</t>
         </is>
